--- a/results/FrequencyTables/26581162_sg45F.xlsx
+++ b/results/FrequencyTables/26581162_sg45F.xlsx
@@ -465,49 +465,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="C2">
-        <v>0.912087912087912</v>
+        <v>0.957559681697613</v>
       </c>
       <c r="D2">
-        <v>0.0659340659340659</v>
+        <v>0.0477453580901857</v>
       </c>
       <c r="E2">
-        <v>0.978021978021978</v>
+        <v>0.986737400530504</v>
       </c>
       <c r="F2">
-        <v>0.978021978021978</v>
+        <v>0.989389920424403</v>
       </c>
       <c r="G2">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="H2">
-        <v>0.978021978021978</v>
+        <v>0.986737400530504</v>
       </c>
       <c r="I2">
-        <v>0.0549450549450549</v>
+        <v>0.0318302387267905</v>
       </c>
       <c r="J2">
-        <v>0.989010989010989</v>
+        <v>0.954907161803713</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -522,16 +522,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.021978021978022</v>
+        <v>0.013262599469496</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.934065934065934</v>
+        <v>0.952254641909814</v>
       </c>
       <c r="E3">
-        <v>0.021978021978022</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,28 +557,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="I3">
-        <v>0.0659340659340659</v>
+        <v>0.13262599469496</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="L3">
-        <v>0.956043956043956</v>
+        <v>0.891246684350133</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.994694960212202</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="O3">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.032967032967033</v>
+        <v>0.111405835543767</v>
       </c>
       <c r="S3">
-        <v>0.967032967032967</v>
+        <v>0.809018567639257</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="X3">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.978021978021978</v>
+        <v>0.981432360742706</v>
       </c>
       <c r="C4">
-        <v>0.0769230769230769</v>
+        <v>0.0318302387267905</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -625,43 +625,43 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.021978021978022</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="G4">
-        <v>0.989010989010989</v>
+        <v>0.989389920424403</v>
       </c>
       <c r="H4">
-        <v>0.021978021978022</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="I4">
-        <v>0.483516483516484</v>
+        <v>0.185676392572944</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0397877984084881</v>
       </c>
       <c r="K4">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="L4">
-        <v>0.010989010989011</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.010989010989011</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.997347480106101</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.978021978021978</v>
+        <v>0.978779840848806</v>
       </c>
       <c r="V4">
-        <v>0.010989010989011</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.994694960212202</v>
       </c>
       <c r="X4">
-        <v>0.989010989010989</v>
+        <v>0.984084880636605</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,46 +687,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.010989010989011</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="C5">
-        <v>0.010989010989011</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="I5">
-        <v>0.395604395604396</v>
+        <v>0.649867374005305</v>
       </c>
       <c r="J5">
-        <v>0.010989010989011</v>
+        <v>0.00530503978779841</v>
       </c>
       <c r="K5">
-        <v>0.989010989010989</v>
+        <v>0.986737400530504</v>
       </c>
       <c r="L5">
-        <v>0.032967032967033</v>
+        <v>0.10079575596817</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
       <c r="N5">
-        <v>0.989010989010989</v>
+        <v>0.992042440318302</v>
       </c>
       <c r="O5">
-        <v>0.989010989010989</v>
+        <v>0.986737400530504</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -735,25 +735,25 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.967032967032967</v>
+        <v>0.885941644562334</v>
       </c>
       <c r="S5">
-        <v>0.032967032967033</v>
+        <v>0.190981432360743</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00795755968169761</v>
       </c>
       <c r="V5">
-        <v>0.989010989010989</v>
+        <v>0.984084880636605</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0026525198938992</v>
       </c>
     </row>
   </sheetData>
